--- a/doc/EchtTestplan Ad-Hoc project groep 9.xlsx
+++ b/doc/EchtTestplan Ad-Hoc project groep 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Eigenlijke resultaten</t>
   </si>
   <si>
-    <t>Goedgekeurd/gefaald</t>
-  </si>
-  <si>
     <t>Opmerkingen</t>
   </si>
   <si>
@@ -119,6 +116,36 @@
   </si>
   <si>
     <t>was.</t>
+  </si>
+  <si>
+    <t>Pass/fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verstuur op een computer afbeeldingen van </t>
+  </si>
+  <si>
+    <t>verschillende groottes in de "All-Chat".</t>
+  </si>
+  <si>
+    <t>De afbeeldingen verschijnen op de verzendende en alle ontvangende</t>
+  </si>
+  <si>
+    <t>computers in het "All-Chat"-venster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verstuur op een computer muziekbestanden van </t>
+  </si>
+  <si>
+    <t>De muziekbestanden worden op alle computers getoond in het "All-Chat"-</t>
+  </si>
+  <si>
+    <t>venster. Ze worden niet automatisch afgespeeld.</t>
+  </si>
+  <si>
+    <t>Klik op de play knop bij de ontvangen muziekbestanden.</t>
+  </si>
+  <si>
+    <t>De muziek speelt af.</t>
   </si>
 </sst>
 </file>
@@ -460,38 +487,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,15 +537,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,23 +553,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,23 +577,23 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,18 +601,18 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,20 +620,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,20 +641,20 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,18 +662,67 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
